--- a/biology/Médecine/1585_en_santé_et_médecine/1585_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1585_en_santé_et_médecine/1585_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1585_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1585_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1585 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1585_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1585_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Jacques Guillemeau (1549-1613) publie « le premier traité des maladies de l'œil[1] en langue française[2] ».
-Samuel Eisenmenger (1534-1585), publie sa Cyclopaedia Paracelsica Christiana[3],[4].
-Deuxième édition[5], sous le titre de Trésor des remèdes secrets pour les maladies des femmes[6], des Trois livres appartenant aux infirmitez et maladies des femmes[7] (1582), de Jean Liébault (1535-1596).</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Jacques Guillemeau (1549-1613) publie « le premier traité des maladies de l'œil en langue française ».
+Samuel Eisenmenger (1534-1585), publie sa Cyclopaedia Paracelsica Christiana,.
+Deuxième édition, sous le titre de Trésor des remèdes secrets pour les maladies des femmes, des Trois livres appartenant aux infirmitez et maladies des femmes (1582), de Jean Liébault (1535-1596).</t>
         </is>
       </c>
     </row>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1585_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1585_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,11 +557,13 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>12 février : Caspar Bartholin le Vieux (mort en 1629), médecin et théologien danois[8].
-4 juillet : Jean Prévost (mort en 1631), médecin et botaniste suisse[9].
-1er novembre : Jan Brożek (mort en 1652), mathématicien, astronome, médecin, poète, écrivain et musicien polonais[10],[11].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>12 février : Caspar Bartholin le Vieux (mort en 1629), médecin et théologien danois.
+4 juillet : Jean Prévost (mort en 1631), médecin et botaniste suisse.
+1er novembre : Jan Brożek (mort en 1652), mathématicien, astronome, médecin, poète, écrivain et musicien polonais,.</t>
         </is>
       </c>
     </row>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1585_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1585_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,10 +591,12 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>28 février : Samuel Eisenmenger (né en 1534), médecin et mathématicien allemand[12].
-10 mars : Rembert Dodoens (né en 1517), botaniste et médecin flamand[13].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>28 février : Samuel Eisenmenger (né en 1534), médecin et mathématicien allemand.
+10 mars : Rembert Dodoens (né en 1517), botaniste et médecin flamand.</t>
         </is>
       </c>
     </row>
